--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{806F06B0-FF33-475F-AE53-72C1692C7C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5859D2-8B5C-4D36-BD45-8A14608500F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2415,13 +2415,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S2b0221h17,S2e0303h09,S2f0318h17,S3aH2,S3i1013h08,S3j1014h12,S3l1128h15,S3m1215h09,S3m1215h14,S3o1217h13,S3p1218h12,S2b0221h08,S2b0221h15,S2e0303h17,S2e0303h18,S3g0923h14,S3g0923h16,S3i1013h18,S3j1014h11,S3j1014h16,S3l1128h16,S3m1215h07,S3m1215h16,S3o1217h07,S3o1217h17,S3p1218h10,S2b0221h14,S2d0302h13,S2e0303h10,S2f0318h08,S2f0318h13,S3g0923h18,S3h1004h16,S3i1013h07,S3i1013h11,S3j1014h09,S3k1120h18,S3m1215h08,S3m1215h11,S3m1215h18,S3n1216h15,S3o1217h16,S3p1218h15,S3p1218h16,S1aH3,S2c0301h15,S3h1004h07,S3j1014h18,S3n1216h14,S3o1217h10,S2b0221h16,S2c0301h09,S2d0302h08,S2d0302h09,S2f0318h11,S3aH3,S3h1004h10,S3k1120h14,S3l1128h12,S3m1215h15,S3o1217h14,S3p1218h09,S2e0303h11,S2f0318h16,S2f0318h18,S3h1004h14,S3i1013h12,S3k1120h07,S3k1120h15,S3l1128h08,S3n1216h13,S3n1216h16,S2b0221h10,S2c0301h10,S2c0301h17,S2d0302h12,S2e0303h14,S2f0318h12,S3h1004h13,S3h1004h18,S3i1013h10,S3i1013h17,S3j1014h07,S3k1120h13,S3l1128h09,S3n1216h18,S3o1217h09,S2b0221h12,S2b0221h18,S2c0301h18,S2d0302h07,S2d0302h17,S2e0303h07,S2e0303h12,S3g0923h12,S3n1216h17,S2d0302h10,S2f0318h07,S2f0318h15,S3h1004h15,S3i1013h13,S3m1215h12,S3m1215h17,S3n1216h07,S3n1216h12,S3o1217h15,S3p1218h17,S2c0301h16,S2e0303h13,S3g0923h11,S3h1004h12,S3j1014h14,S3k1120h08,S3k1120h10,S3o1217h08,S2c0301h13,S2d0302h16,S2e0303h08,S2f0318h14,S3g0923h07,S3g0923h17,S3h1004h09,S3h1004h17,S3i1013h14,S3k1120h11,S3l1128h07,S3l1128h13,S3l1128h14,S3o1217h11,S3o1217h18,S3p1218h18,S2c0301h11,S3j1014h13,S3k1120h12,S3l1128h11,S3m1215h10,S3o1217h12,S2b0221h09,S2c0301h12,S2d0302h14,S2d0302h18,S3g0923h13,S3h1004h08,S3k1120h17,S3l1128h18,S3m1215h13,S3n1216h09,S3n1216h11,S1aH2,S2aH3,S2b0221h07,S3g0923h09,S3i1013h09,S3k1120h09,S3k1120h16,S3n1216h08,S3n1216h10,S3p1218h08,S3p1218h11,S3p1218h14,S2b0221h13,S2c0301h08,S2c0301h14,S2f0318h09,S2f0318h10,S3g0923h08,S3g0923h15,S3h1004h11,S3i1013h15,S3i1013h16,S3j1014h08,S3l1128h10,S3p1218h07,S3p1218h13,S2aH2,S2b0221h11,S2c0301h07,S2d0302h11,S2d0302h15,S2e0303h15,S2e0303h16,S3g0923h10,S3j1014h10,S3j1014h15,S3j1014h17,S3l1128h17</t>
+    <t>S2d0302h10,S2f0318h07,S2f0318h15,S3h1004h15,S3i1013h13,S3m1215h12,S3m1215h17,S3n1216h07,S3n1216h12,S3o1217h15,S3p1218h17,S2b0221h13,S2c0301h08,S2c0301h14,S2f0318h09,S2f0318h10,S3g0923h08,S3g0923h15,S3h1004h11,S3i1013h15,S3i1013h16,S3j1014h08,S3l1128h10,S3p1218h07,S3p1218h13,S2c0301h16,S2e0303h13,S3g0923h11,S3h1004h12,S3j1014h14,S3k1120h08,S3k1120h10,S3o1217h08,S1aH2,S2aH3,S2b0221h07,S3g0923h09,S3i1013h09,S3k1120h09,S3k1120h16,S3n1216h08,S3n1216h10,S3p1218h08,S3p1218h11,S3p1218h14,S2b0221h08,S2b0221h15,S2e0303h17,S2e0303h18,S3g0923h14,S3g0923h16,S3i1013h18,S3j1014h11,S3j1014h16,S3l1128h16,S3m1215h07,S3m1215h16,S3o1217h07,S3o1217h17,S3p1218h10,S2c0301h11,S3j1014h13,S3k1120h12,S3l1128h11,S3m1215h10,S3o1217h12,S1aH3,S2c0301h15,S3h1004h07,S3j1014h18,S3n1216h14,S3o1217h10,S2e0303h11,S2f0318h16,S2f0318h18,S3h1004h14,S3i1013h12,S3k1120h07,S3k1120h15,S3l1128h08,S3n1216h13,S3n1216h16,S2b0221h14,S2d0302h13,S2e0303h10,S2f0318h08,S2f0318h13,S3g0923h18,S3h1004h16,S3i1013h07,S3i1013h11,S3j1014h09,S3k1120h18,S3m1215h08,S3m1215h11,S3m1215h18,S3n1216h15,S3o1217h16,S3p1218h15,S3p1218h16,S2b0221h12,S2b0221h18,S2c0301h18,S2d0302h07,S2d0302h17,S2e0303h07,S2e0303h12,S3g0923h12,S3n1216h17,S2c0301h13,S2d0302h16,S2e0303h08,S2f0318h14,S3g0923h07,S3g0923h17,S3h1004h09,S3h1004h17,S3i1013h14,S3k1120h11,S3l1128h07,S3l1128h13,S3l1128h14,S3o1217h11,S3o1217h18,S3p1218h18,S2b0221h17,S2e0303h09,S2f0318h17,S3aH2,S3i1013h08,S3j1014h12,S3l1128h15,S3m1215h09,S3m1215h14,S3o1217h13,S3p1218h12,S2aH2,S2b0221h11,S2c0301h07,S2d0302h11,S2d0302h15,S2e0303h15,S2e0303h16,S3g0923h10,S3j1014h10,S3j1014h15,S3j1014h17,S3l1128h17,S2b0221h09,S2c0301h12,S2d0302h14,S2d0302h18,S3g0923h13,S3h1004h08,S3k1120h17,S3l1128h18,S3m1215h13,S3n1216h09,S3n1216h11,S2b0221h16,S2c0301h09,S2d0302h08,S2d0302h09,S2f0318h11,S3aH3,S3h1004h10,S3k1120h14,S3l1128h12,S3m1215h15,S3o1217h14,S3p1218h09,S2b0221h10,S2c0301h10,S2c0301h17,S2d0302h12,S2e0303h14,S2f0318h12,S3h1004h13,S3h1004h18,S3i1013h10,S3i1013h17,S3j1014h07,S3k1120h13,S3l1128h09,S3n1216h18,S3o1217h09</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2c0301h01,S2e0303h05,S2f0318h23,S3i1013h03,S3i1013h24,S3j1014h24,S3l1128h03,S3m1215h06,S3m1215h21,S3n1216h05,S3p1218h19,S1aH1,S2b0221h23,S2f0318h02,S2f0318h03,S2f0318h24,S3aH4,S3g0923h01,S3k1120h06,S3l1128h24,S3m1215h01,S3m1215h02,S3m1215h20,S2c0301h03,S2d0302h02,S2d0302h19,S2e0303h02,S2f0318h01,S2f0318h20,S3g0923h21,S3h1004h04,S3j1014h04,S3k1120h03,S3l1128h22,S3m1215h04,S3n1216h22,S3n1216h24,S3o1217h01,S3o1217h19,S3o1217h22,S2b0221h22,S2c0301h04,S2c0301h06,S3h1004h19,S3h1004h22,S3h1004h24,S3j1014h01,S3j1014h05,S3k1120h04,S3l1128h01,S3l1128h19,S3o1217h02,S3o1217h03,S3p1218h04,S3p1218h21,S1aH4,S2b0221h05,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S3h1004h03,S3j1014h21,S3k1120h05,S3p1218h06,S2b0221h06,S2b0221h20,S2e0303h06,S3g0923h02,S3g0923h06,S3k1120h21,S3l1128h21,S3n1216h02,S3p1218h05,S2b0221h02,S2b0221h21,S2f0318h06,S3aH1,S3k1120h02,S3l1128h23,S2aH1,S2b0221h03,S2c0301h02,S2d0302h04,S2e0303h24,S3h1004h20,S3i1013h06,S3j1014h02,S3n1216h06,S3o1217h06,S2d0302h06,S2d0302h20,S2d0302h24,S2e0303h23,S3h1004h01,S3i1013h21,S3j1014h23,S3k1120h23,S3l1128h02,S3l1128h20,S3o1217h05,S3p1218h01,S2b0221h04,S2b0221h19,S2d0302h23,S3k1120h01,S3k1120h19,S3l1128h04,S3l1128h06,S3n1216h01,S3n1216h20,S3p1218h20,S3p1218h22,S3p1218h24,S2c0301h20,S3g0923h03,S3i1013h01,S3i1013h23,S3j1014h20,S3j1014h22,S3k1120h22,S3m1215h22,S3n1216h21,S3o1217h21,S3o1217h23,S2c0301h05,S2c0301h21,S2c0301h23,S2d0302h01,S2e0303h19,S3g0923h04,S3g0923h22,S3h1004h06,S3i1013h19,S3i1013h22,S3j1014h19,S3n1216h03,S3p1218h03,S2e0303h22,S3g0923h24,S3h1004h05,S3i1013h04,S3o1217h24,S3p1218h02,S2d0302h03,S2d0302h05,S2d0302h22,S2e0303h01,S2e0303h04,S3g0923h19,S3i1013h02,S3j1014h03,S3j1014h06,S3k1120h20,S3l1128h05,S3m1215h05,S3n1216h19,S3o1217h20,S2aH4,S2c0301h19,S2c0301h22,S2f0318h05,S3g0923h20,S3g0923h23,S3h1004h21,S3i1013h05,S3m1215h19,S3n1216h04,S3o1217h04,S3p1218h23,S2b0221h01,S2b0221h24,S2c0301h24,S2d0302h21,S2e0303h03,S2e0303h21,S2f0318h22,S3g0923h05,S3h1004h02,S3h1004h23,S3i1013h20,S3k1120h24,S3m1215h03,S3m1215h23,S3m1215h24,S3n1216h23</t>
+    <t>S2d0302h06,S2d0302h20,S2d0302h24,S2e0303h23,S3h1004h01,S3i1013h21,S3j1014h23,S3k1120h23,S3l1128h02,S3l1128h20,S3o1217h05,S3p1218h01,S2aH4,S2c0301h19,S2c0301h22,S2f0318h05,S3g0923h20,S3g0923h23,S3h1004h21,S3i1013h05,S3m1215h19,S3n1216h04,S3o1217h04,S3p1218h23,S2b0221h04,S2b0221h19,S2d0302h23,S3k1120h01,S3k1120h19,S3l1128h04,S3l1128h06,S3n1216h01,S3n1216h20,S3p1218h20,S3p1218h22,S3p1218h24,S2d0302h03,S2d0302h05,S2d0302h22,S2e0303h01,S2e0303h04,S3g0923h19,S3i1013h02,S3j1014h03,S3j1014h06,S3k1120h20,S3l1128h05,S3m1215h05,S3n1216h19,S3o1217h20,S1aH1,S2b0221h23,S2f0318h02,S2f0318h03,S2f0318h24,S3aH4,S3g0923h01,S3k1120h06,S3l1128h24,S3m1215h01,S3m1215h02,S3m1215h20,S2c0301h05,S2c0301h21,S2c0301h23,S2d0302h01,S2e0303h19,S3g0923h04,S3g0923h22,S3h1004h06,S3i1013h19,S3i1013h22,S3j1014h19,S3n1216h03,S3p1218h03,S2b0221h22,S2c0301h04,S2c0301h06,S3h1004h19,S3h1004h22,S3h1004h24,S3j1014h01,S3j1014h05,S3k1120h04,S3l1128h01,S3l1128h19,S3o1217h02,S3o1217h03,S3p1218h04,S3p1218h21,S2b0221h06,S2b0221h20,S2e0303h06,S3g0923h02,S3g0923h06,S3k1120h21,S3l1128h21,S3n1216h02,S3p1218h05,S2c0301h03,S2d0302h02,S2d0302h19,S2e0303h02,S2f0318h01,S2f0318h20,S3g0923h21,S3h1004h04,S3j1014h04,S3k1120h03,S3l1128h22,S3m1215h04,S3n1216h22,S3n1216h24,S3o1217h01,S3o1217h19,S3o1217h22,S2aH1,S2b0221h03,S2c0301h02,S2d0302h04,S2e0303h24,S3h1004h20,S3i1013h06,S3j1014h02,S3n1216h06,S3o1217h06,S2c0301h20,S3g0923h03,S3i1013h01,S3i1013h23,S3j1014h20,S3j1014h22,S3k1120h22,S3m1215h22,S3n1216h21,S3o1217h21,S3o1217h23,S2c0301h01,S2e0303h05,S2f0318h23,S3i1013h03,S3i1013h24,S3j1014h24,S3l1128h03,S3m1215h06,S3m1215h21,S3n1216h05,S3p1218h19,S2b0221h01,S2b0221h24,S2c0301h24,S2d0302h21,S2e0303h03,S2e0303h21,S2f0318h22,S3g0923h05,S3h1004h02,S3h1004h23,S3i1013h20,S3k1120h24,S3m1215h03,S3m1215h23,S3m1215h24,S3n1216h23,S2e0303h22,S3g0923h24,S3h1004h05,S3i1013h04,S3o1217h24,S3p1218h02,S1aH4,S2b0221h05,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S3h1004h03,S3j1014h21,S3k1120h05,S3p1218h06,S2b0221h02,S2b0221h21,S2f0318h06,S3aH1,S3k1120h02,S3l1128h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2c0301h01,S2e0303h05,S2f0318h23,S3i1013h03,S3i1013h24,S3j1014h24,S3l1128h03,S3m1215h06,S3m1215h21,S3n1216h05,S3p1218h19,S1aH1,S2b0221h23,S2f0318h02,S2f0318h03,S2f0318h24,S3aH4,S3g0923h01,S3k1120h06,S3l1128h24,S3m1215h01,S3m1215h02,S3m1215h20,S2c0301h03,S2d0302h02,S2d0302h19,S2e0303h02,S2f0318h01,S2f0318h20,S3g0923h21,S3h1004h04,S3j1014h04,S3k1120h03,S3l1128h22,S3m1215h04,S3n1216h22,S3n1216h24,S3o1217h01,S3o1217h19,S3o1217h22,S2b0221h22,S2c0301h04,S2c0301h06,S3h1004h19,S3h1004h22,S3h1004h24,S3j1014h01,S3j1014h05,S3k1120h04,S3l1128h01,S3l1128h19,S3o1217h02,S3o1217h03,S3p1218h04,S3p1218h21,S1aH4,S2b0221h05,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S3h1004h03,S3j1014h21,S3k1120h05,S3p1218h06,S2b0221h06,S2b0221h20,S2e0303h06,S3g0923h02,S3g0923h06,S3k1120h21,S3l1128h21,S3n1216h02,S3p1218h05,S2b0221h02,S2b0221h21,S2f0318h06,S3aH1,S3k1120h02,S3l1128h23,S2aH1,S2b0221h03,S2c0301h02,S2d0302h04,S2e0303h24,S3h1004h20,S3i1013h06,S3j1014h02,S3n1216h06,S3o1217h06,S2d0302h06,S2d0302h20,S2d0302h24,S2e0303h23,S3h1004h01,S3i1013h21,S3j1014h23,S3k1120h23,S3l1128h02,S3l1128h20,S3o1217h05,S3p1218h01,S2b0221h04,S2b0221h19,S2d0302h23,S3k1120h01,S3k1120h19,S3l1128h04,S3l1128h06,S3n1216h01,S3n1216h20,S3p1218h20,S3p1218h22,S3p1218h24,S2c0301h20,S3g0923h03,S3i1013h01,S3i1013h23,S3j1014h20,S3j1014h22,S3k1120h22,S3m1215h22,S3n1216h21,S3o1217h21,S3o1217h23,S2c0301h05,S2c0301h21,S2c0301h23,S2d0302h01,S2e0303h19,S3g0923h04,S3g0923h22,S3h1004h06,S3i1013h19,S3i1013h22,S3j1014h19,S3n1216h03,S3p1218h03,S2e0303h22,S3g0923h24,S3h1004h05,S3i1013h04,S3o1217h24,S3p1218h02,S2d0302h03,S2d0302h05,S2d0302h22,S2e0303h01,S2e0303h04,S3g0923h19,S3i1013h02,S3j1014h03,S3j1014h06,S3k1120h20,S3l1128h05,S3m1215h05,S3n1216h19,S3o1217h20,S2aH4,S2c0301h19,S2c0301h22,S2f0318h05,S3g0923h20,S3g0923h23,S3h1004h21,S3i1013h05,S3m1215h19,S3n1216h04,S3o1217h04,S3p1218h23,S2b0221h01,S2b0221h24,S2c0301h24,S2d0302h21,S2e0303h03,S2e0303h21,S2f0318h22,S3g0923h05,S3h1004h02,S3h1004h23,S3i1013h20,S3k1120h24,S3m1215h03,S3m1215h23,S3m1215h24,S3n1216h23</v>
+        <v>S2d0302h06,S2d0302h20,S2d0302h24,S2e0303h23,S3h1004h01,S3i1013h21,S3j1014h23,S3k1120h23,S3l1128h02,S3l1128h20,S3o1217h05,S3p1218h01,S2aH4,S2c0301h19,S2c0301h22,S2f0318h05,S3g0923h20,S3g0923h23,S3h1004h21,S3i1013h05,S3m1215h19,S3n1216h04,S3o1217h04,S3p1218h23,S2b0221h04,S2b0221h19,S2d0302h23,S3k1120h01,S3k1120h19,S3l1128h04,S3l1128h06,S3n1216h01,S3n1216h20,S3p1218h20,S3p1218h22,S3p1218h24,S2d0302h03,S2d0302h05,S2d0302h22,S2e0303h01,S2e0303h04,S3g0923h19,S3i1013h02,S3j1014h03,S3j1014h06,S3k1120h20,S3l1128h05,S3m1215h05,S3n1216h19,S3o1217h20,S1aH1,S2b0221h23,S2f0318h02,S2f0318h03,S2f0318h24,S3aH4,S3g0923h01,S3k1120h06,S3l1128h24,S3m1215h01,S3m1215h02,S3m1215h20,S2c0301h05,S2c0301h21,S2c0301h23,S2d0302h01,S2e0303h19,S3g0923h04,S3g0923h22,S3h1004h06,S3i1013h19,S3i1013h22,S3j1014h19,S3n1216h03,S3p1218h03,S2b0221h22,S2c0301h04,S2c0301h06,S3h1004h19,S3h1004h22,S3h1004h24,S3j1014h01,S3j1014h05,S3k1120h04,S3l1128h01,S3l1128h19,S3o1217h02,S3o1217h03,S3p1218h04,S3p1218h21,S2b0221h06,S2b0221h20,S2e0303h06,S3g0923h02,S3g0923h06,S3k1120h21,S3l1128h21,S3n1216h02,S3p1218h05,S2c0301h03,S2d0302h02,S2d0302h19,S2e0303h02,S2f0318h01,S2f0318h20,S3g0923h21,S3h1004h04,S3j1014h04,S3k1120h03,S3l1128h22,S3m1215h04,S3n1216h22,S3n1216h24,S3o1217h01,S3o1217h19,S3o1217h22,S2aH1,S2b0221h03,S2c0301h02,S2d0302h04,S2e0303h24,S3h1004h20,S3i1013h06,S3j1014h02,S3n1216h06,S3o1217h06,S2c0301h20,S3g0923h03,S3i1013h01,S3i1013h23,S3j1014h20,S3j1014h22,S3k1120h22,S3m1215h22,S3n1216h21,S3o1217h21,S3o1217h23,S2c0301h01,S2e0303h05,S2f0318h23,S3i1013h03,S3i1013h24,S3j1014h24,S3l1128h03,S3m1215h06,S3m1215h21,S3n1216h05,S3p1218h19,S2b0221h01,S2b0221h24,S2c0301h24,S2d0302h21,S2e0303h03,S2e0303h21,S2f0318h22,S3g0923h05,S3h1004h02,S3h1004h23,S3i1013h20,S3k1120h24,S3m1215h03,S3m1215h23,S3m1215h24,S3n1216h23,S2e0303h22,S3g0923h24,S3h1004h05,S3i1013h04,S3o1217h24,S3p1218h02,S1aH4,S2b0221h05,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S3h1004h03,S3j1014h21,S3k1120h05,S3p1218h06,S2b0221h02,S2b0221h21,S2f0318h06,S3aH1,S3k1120h02,S3l1128h23</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S2b0221h17,S2e0303h09,S2f0318h17,S3aH2,S3i1013h08,S3j1014h12,S3l1128h15,S3m1215h09,S3m1215h14,S3o1217h13,S3p1218h12,S2b0221h08,S2b0221h15,S2e0303h17,S2e0303h18,S3g0923h14,S3g0923h16,S3i1013h18,S3j1014h11,S3j1014h16,S3l1128h16,S3m1215h07,S3m1215h16,S3o1217h07,S3o1217h17,S3p1218h10,S2b0221h14,S2d0302h13,S2e0303h10,S2f0318h08,S2f0318h13,S3g0923h18,S3h1004h16,S3i1013h07,S3i1013h11,S3j1014h09,S3k1120h18,S3m1215h08,S3m1215h11,S3m1215h18,S3n1216h15,S3o1217h16,S3p1218h15,S3p1218h16,S1aH3,S2c0301h15,S3h1004h07,S3j1014h18,S3n1216h14,S3o1217h10,S2b0221h16,S2c0301h09,S2d0302h08,S2d0302h09,S2f0318h11,S3aH3,S3h1004h10,S3k1120h14,S3l1128h12,S3m1215h15,S3o1217h14,S3p1218h09,S2e0303h11,S2f0318h16,S2f0318h18,S3h1004h14,S3i1013h12,S3k1120h07,S3k1120h15,S3l1128h08,S3n1216h13,S3n1216h16,S2b0221h10,S2c0301h10,S2c0301h17,S2d0302h12,S2e0303h14,S2f0318h12,S3h1004h13,S3h1004h18,S3i1013h10,S3i1013h17,S3j1014h07,S3k1120h13,S3l1128h09,S3n1216h18,S3o1217h09,S2b0221h12,S2b0221h18,S2c0301h18,S2d0302h07,S2d0302h17,S2e0303h07,S2e0303h12,S3g0923h12,S3n1216h17,S2d0302h10,S2f0318h07,S2f0318h15,S3h1004h15,S3i1013h13,S3m1215h12,S3m1215h17,S3n1216h07,S3n1216h12,S3o1217h15,S3p1218h17,S2c0301h16,S2e0303h13,S3g0923h11,S3h1004h12,S3j1014h14,S3k1120h08,S3k1120h10,S3o1217h08,S2c0301h13,S2d0302h16,S2e0303h08,S2f0318h14,S3g0923h07,S3g0923h17,S3h1004h09,S3h1004h17,S3i1013h14,S3k1120h11,S3l1128h07,S3l1128h13,S3l1128h14,S3o1217h11,S3o1217h18,S3p1218h18,S2c0301h11,S3j1014h13,S3k1120h12,S3l1128h11,S3m1215h10,S3o1217h12,S2b0221h09,S2c0301h12,S2d0302h14,S2d0302h18,S3g0923h13,S3h1004h08,S3k1120h17,S3l1128h18,S3m1215h13,S3n1216h09,S3n1216h11,S1aH2,S2aH3,S2b0221h07,S3g0923h09,S3i1013h09,S3k1120h09,S3k1120h16,S3n1216h08,S3n1216h10,S3p1218h08,S3p1218h11,S3p1218h14,S2b0221h13,S2c0301h08,S2c0301h14,S2f0318h09,S2f0318h10,S3g0923h08,S3g0923h15,S3h1004h11,S3i1013h15,S3i1013h16,S3j1014h08,S3l1128h10,S3p1218h07,S3p1218h13,S2aH2,S2b0221h11,S2c0301h07,S2d0302h11,S2d0302h15,S2e0303h15,S2e0303h16,S3g0923h10,S3j1014h10,S3j1014h15,S3j1014h17,S3l1128h17</v>
+        <v>S2d0302h10,S2f0318h07,S2f0318h15,S3h1004h15,S3i1013h13,S3m1215h12,S3m1215h17,S3n1216h07,S3n1216h12,S3o1217h15,S3p1218h17,S2b0221h13,S2c0301h08,S2c0301h14,S2f0318h09,S2f0318h10,S3g0923h08,S3g0923h15,S3h1004h11,S3i1013h15,S3i1013h16,S3j1014h08,S3l1128h10,S3p1218h07,S3p1218h13,S2c0301h16,S2e0303h13,S3g0923h11,S3h1004h12,S3j1014h14,S3k1120h08,S3k1120h10,S3o1217h08,S1aH2,S2aH3,S2b0221h07,S3g0923h09,S3i1013h09,S3k1120h09,S3k1120h16,S3n1216h08,S3n1216h10,S3p1218h08,S3p1218h11,S3p1218h14,S2b0221h08,S2b0221h15,S2e0303h17,S2e0303h18,S3g0923h14,S3g0923h16,S3i1013h18,S3j1014h11,S3j1014h16,S3l1128h16,S3m1215h07,S3m1215h16,S3o1217h07,S3o1217h17,S3p1218h10,S2c0301h11,S3j1014h13,S3k1120h12,S3l1128h11,S3m1215h10,S3o1217h12,S1aH3,S2c0301h15,S3h1004h07,S3j1014h18,S3n1216h14,S3o1217h10,S2e0303h11,S2f0318h16,S2f0318h18,S3h1004h14,S3i1013h12,S3k1120h07,S3k1120h15,S3l1128h08,S3n1216h13,S3n1216h16,S2b0221h14,S2d0302h13,S2e0303h10,S2f0318h08,S2f0318h13,S3g0923h18,S3h1004h16,S3i1013h07,S3i1013h11,S3j1014h09,S3k1120h18,S3m1215h08,S3m1215h11,S3m1215h18,S3n1216h15,S3o1217h16,S3p1218h15,S3p1218h16,S2b0221h12,S2b0221h18,S2c0301h18,S2d0302h07,S2d0302h17,S2e0303h07,S2e0303h12,S3g0923h12,S3n1216h17,S2c0301h13,S2d0302h16,S2e0303h08,S2f0318h14,S3g0923h07,S3g0923h17,S3h1004h09,S3h1004h17,S3i1013h14,S3k1120h11,S3l1128h07,S3l1128h13,S3l1128h14,S3o1217h11,S3o1217h18,S3p1218h18,S2b0221h17,S2e0303h09,S2f0318h17,S3aH2,S3i1013h08,S3j1014h12,S3l1128h15,S3m1215h09,S3m1215h14,S3o1217h13,S3p1218h12,S2aH2,S2b0221h11,S2c0301h07,S2d0302h11,S2d0302h15,S2e0303h15,S2e0303h16,S3g0923h10,S3j1014h10,S3j1014h15,S3j1014h17,S3l1128h17,S2b0221h09,S2c0301h12,S2d0302h14,S2d0302h18,S3g0923h13,S3h1004h08,S3k1120h17,S3l1128h18,S3m1215h13,S3n1216h09,S3n1216h11,S2b0221h16,S2c0301h09,S2d0302h08,S2d0302h09,S2f0318h11,S3aH3,S3h1004h10,S3k1120h14,S3l1128h12,S3m1215h15,S3o1217h14,S3p1218h09,S2b0221h10,S2c0301h10,S2c0301h17,S2d0302h12,S2e0303h14,S2f0318h12,S3h1004h13,S3h1004h18,S3i1013h10,S3i1013h17,S3j1014h07,S3k1120h13,S3l1128h09,S3n1216h18,S3o1217h09</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3072,7 +3072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC6009B-6110-4C92-8B91-2B8F1E669B32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62D7BD-4EDE-4243-8E0A-6603237A9AC6}">
   <dimension ref="A9:AM754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3482,7 +3482,7 @@
         <v>29</v>
       </c>
       <c r="AL13">
-        <v>0.84660555896610845</v>
+        <v>0.84660555896610834</v>
       </c>
       <c r="AM13" t="s">
         <v>799</v>
